--- a/app/skinGui/iniGenerators/rightUpperArm_ini_generator iCubV3_0.xlsx
+++ b/app/skinGui/iniGenerators/rightUpperArm_ini_generator iCubV3_0.xlsx
@@ -3187,25 +3187,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>534787</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>150712</xdr:rowOff>
+      <xdr:rowOff>1817</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>897673</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>46190</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>45386</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>87795</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1"/>
+        <xdr:cNvPr id="30" name="Group 29"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9985704" y="2426129"/>
+          <a:off x="14562667" y="2277234"/>
           <a:ext cx="4342219" cy="4097061"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
@@ -3213,20 +3213,20 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="3" name="Group 2"/>
+          <xdr:cNvPr id="31" name="Group 30"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="9974062" y="2417662"/>
-            <a:ext cx="4353861" cy="4096003"/>
+            <a:off x="10968014" y="1847464"/>
+            <a:ext cx="5518210" cy="4625913"/>
             <a:chOff x="10811132" y="1399229"/>
             <a:chExt cx="5518210" cy="4625913"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Picture 4" descr="Octagon.bmp"/>
+            <xdr:cNvPr id="33" name="Picture 32" descr="Octagon.bmp"/>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1"/>
             </xdr:cNvPicPr>
@@ -3249,7 +3249,7 @@
         </xdr:pic>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="6" name="Group 5"/>
+            <xdr:cNvPr id="34" name="Group 33"/>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -3262,7 +3262,7 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="7" name="TextBox 6"/>
+              <xdr:cNvPr id="35" name="TextBox 34"/>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3303,7 +3303,7 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="8" name="TextBox 7"/>
+              <xdr:cNvPr id="36" name="TextBox 35"/>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3344,7 +3344,7 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="9" name="TextBox 8"/>
+              <xdr:cNvPr id="37" name="TextBox 36"/>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3385,7 +3385,7 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="10" name="TextBox 9"/>
+              <xdr:cNvPr id="38" name="TextBox 37"/>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3426,7 +3426,7 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="11" name="TextBox 10"/>
+              <xdr:cNvPr id="39" name="TextBox 38"/>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3467,7 +3467,7 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="12" name="TextBox 11"/>
+              <xdr:cNvPr id="40" name="TextBox 39"/>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3509,7 +3509,7 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="13" name="TextBox 12"/>
+              <xdr:cNvPr id="41" name="TextBox 40"/>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3550,7 +3550,7 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="14" name="TextBox 13"/>
+              <xdr:cNvPr id="42" name="TextBox 41"/>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3591,7 +3591,7 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="15" name="TextBox 14"/>
+              <xdr:cNvPr id="43" name="TextBox 42"/>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3632,7 +3632,7 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="16" name="TextBox 15"/>
+              <xdr:cNvPr id="44" name="TextBox 43"/>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3673,7 +3673,7 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="17" name="TextBox 16"/>
+              <xdr:cNvPr id="45" name="TextBox 44"/>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3714,7 +3714,7 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="18" name="TextBox 17"/>
+              <xdr:cNvPr id="46" name="TextBox 45"/>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3755,7 +3755,7 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="19" name="TextBox 18"/>
+              <xdr:cNvPr id="47" name="TextBox 46"/>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3796,7 +3796,7 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="20" name="TextBox 19"/>
+              <xdr:cNvPr id="48" name="TextBox 47"/>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3837,7 +3837,7 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="21" name="TextBox 20"/>
+              <xdr:cNvPr id="49" name="TextBox 48"/>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3878,7 +3878,7 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="22" name="TextBox 21"/>
+              <xdr:cNvPr id="50" name="TextBox 49"/>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3919,7 +3919,7 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="23" name="TextBox 22"/>
+              <xdr:cNvPr id="51" name="TextBox 50"/>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3960,7 +3960,7 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="24" name="TextBox 23"/>
+              <xdr:cNvPr id="52" name="TextBox 51"/>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -4001,7 +4001,7 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="25" name="TextBox 24"/>
+              <xdr:cNvPr id="53" name="TextBox 52"/>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -4042,7 +4042,7 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="26" name="TextBox 25"/>
+              <xdr:cNvPr id="54" name="TextBox 53"/>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -4083,7 +4083,7 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="27" name="TextBox 26"/>
+              <xdr:cNvPr id="55" name="TextBox 54"/>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -4124,7 +4124,7 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="28" name="TextBox 27"/>
+              <xdr:cNvPr id="56" name="TextBox 55"/>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -4167,7 +4167,7 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="TextBox 3"/>
+          <xdr:cNvPr id="32" name="TextBox 31"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4211,26 +4211,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>305432</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>67490</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>518564</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>179917</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>2455335</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>184880</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>115687</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Freeform 5"/>
+        <xdr:cNvPr id="57" name="Freeform 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10486599" y="4438407"/>
-          <a:ext cx="2774319" cy="2038594"/>
+          <a:off x="15081231" y="4360334"/>
+          <a:ext cx="2735482" cy="2041853"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5419,74 +5419,74 @@
             <a:gd name="connsiteY9" fmla="*/ 3970243 h 3991089"/>
             <a:gd name="connsiteX10" fmla="*/ 0 w 2834689"/>
             <a:gd name="connsiteY10" fmla="*/ 2985714 h 3991089"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 2834689"/>
-            <a:gd name="connsiteY0" fmla="*/ 2985714 h 3991089"/>
-            <a:gd name="connsiteX1" fmla="*/ 616066 w 2834689"/>
+            <a:gd name="connsiteX0" fmla="*/ 545772 w 2795008"/>
+            <a:gd name="connsiteY0" fmla="*/ 3970243 h 3991089"/>
+            <a:gd name="connsiteX1" fmla="*/ 576385 w 2795008"/>
             <a:gd name="connsiteY1" fmla="*/ 1983480 h 3991089"/>
-            <a:gd name="connsiteX2" fmla="*/ 39681 w 2834689"/>
+            <a:gd name="connsiteX2" fmla="*/ 0 w 2795008"/>
             <a:gd name="connsiteY2" fmla="*/ 954977 h 3991089"/>
-            <a:gd name="connsiteX3" fmla="*/ 2828460 w 2834689"/>
-            <a:gd name="connsiteY3" fmla="*/ 0 h 3991089"/>
-            <a:gd name="connsiteX4" fmla="*/ 2294006 w 2834689"/>
-            <a:gd name="connsiteY4" fmla="*/ 999838 h 3991089"/>
-            <a:gd name="connsiteX5" fmla="*/ 2834688 w 2834689"/>
-            <a:gd name="connsiteY5" fmla="*/ 2010818 h 3991089"/>
-            <a:gd name="connsiteX6" fmla="*/ 2304819 w 2834689"/>
-            <a:gd name="connsiteY6" fmla="*/ 3032221 h 3991089"/>
-            <a:gd name="connsiteX7" fmla="*/ 2834689 w 2834689"/>
-            <a:gd name="connsiteY7" fmla="*/ 3991089 h 3991089"/>
-            <a:gd name="connsiteX8" fmla="*/ 585453 w 2834689"/>
-            <a:gd name="connsiteY8" fmla="*/ 3970243 h 3991089"/>
-            <a:gd name="connsiteX9" fmla="*/ 0 w 2834689"/>
-            <a:gd name="connsiteY9" fmla="*/ 2985714 h 3991089"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 2834689"/>
-            <a:gd name="connsiteY0" fmla="*/ 2985714 h 3991089"/>
-            <a:gd name="connsiteX1" fmla="*/ 616066 w 2834689"/>
+            <a:gd name="connsiteX3" fmla="*/ 532520 w 2795008"/>
+            <a:gd name="connsiteY3" fmla="*/ 9091 h 3991089"/>
+            <a:gd name="connsiteX4" fmla="*/ 2788779 w 2795008"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 3991089"/>
+            <a:gd name="connsiteX5" fmla="*/ 2254325 w 2795008"/>
+            <a:gd name="connsiteY5" fmla="*/ 999838 h 3991089"/>
+            <a:gd name="connsiteX6" fmla="*/ 2795007 w 2795008"/>
+            <a:gd name="connsiteY6" fmla="*/ 2010818 h 3991089"/>
+            <a:gd name="connsiteX7" fmla="*/ 2265138 w 2795008"/>
+            <a:gd name="connsiteY7" fmla="*/ 3032221 h 3991089"/>
+            <a:gd name="connsiteX8" fmla="*/ 2795008 w 2795008"/>
+            <a:gd name="connsiteY8" fmla="*/ 3991089 h 3991089"/>
+            <a:gd name="connsiteX9" fmla="*/ 545772 w 2795008"/>
+            <a:gd name="connsiteY9" fmla="*/ 3970243 h 3991089"/>
+            <a:gd name="connsiteX0" fmla="*/ 2795008 w 2795008"/>
+            <a:gd name="connsiteY0" fmla="*/ 3991089 h 3991089"/>
+            <a:gd name="connsiteX1" fmla="*/ 576385 w 2795008"/>
             <a:gd name="connsiteY1" fmla="*/ 1983480 h 3991089"/>
-            <a:gd name="connsiteX2" fmla="*/ 2828460 w 2834689"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 3991089"/>
-            <a:gd name="connsiteX3" fmla="*/ 2294006 w 2834689"/>
-            <a:gd name="connsiteY3" fmla="*/ 999838 h 3991089"/>
-            <a:gd name="connsiteX4" fmla="*/ 2834688 w 2834689"/>
-            <a:gd name="connsiteY4" fmla="*/ 2010818 h 3991089"/>
-            <a:gd name="connsiteX5" fmla="*/ 2304819 w 2834689"/>
-            <a:gd name="connsiteY5" fmla="*/ 3032221 h 3991089"/>
-            <a:gd name="connsiteX6" fmla="*/ 2834689 w 2834689"/>
-            <a:gd name="connsiteY6" fmla="*/ 3991089 h 3991089"/>
-            <a:gd name="connsiteX7" fmla="*/ 585453 w 2834689"/>
-            <a:gd name="connsiteY7" fmla="*/ 3970243 h 3991089"/>
-            <a:gd name="connsiteX8" fmla="*/ 0 w 2834689"/>
-            <a:gd name="connsiteY8" fmla="*/ 2985714 h 3991089"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 2834689"/>
-            <a:gd name="connsiteY0" fmla="*/ 1985876 h 2991251"/>
-            <a:gd name="connsiteX1" fmla="*/ 616066 w 2834689"/>
-            <a:gd name="connsiteY1" fmla="*/ 983642 h 2991251"/>
-            <a:gd name="connsiteX2" fmla="*/ 2294006 w 2834689"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 2991251"/>
-            <a:gd name="connsiteX3" fmla="*/ 2834688 w 2834689"/>
-            <a:gd name="connsiteY3" fmla="*/ 1010980 h 2991251"/>
-            <a:gd name="connsiteX4" fmla="*/ 2304819 w 2834689"/>
-            <a:gd name="connsiteY4" fmla="*/ 2032383 h 2991251"/>
-            <a:gd name="connsiteX5" fmla="*/ 2834689 w 2834689"/>
-            <a:gd name="connsiteY5" fmla="*/ 2991251 h 2991251"/>
-            <a:gd name="connsiteX6" fmla="*/ 585453 w 2834689"/>
-            <a:gd name="connsiteY6" fmla="*/ 2970405 h 2991251"/>
-            <a:gd name="connsiteX7" fmla="*/ 0 w 2834689"/>
-            <a:gd name="connsiteY7" fmla="*/ 1985876 h 2991251"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 2834689"/>
-            <a:gd name="connsiteY0" fmla="*/ 1002234 h 2007609"/>
-            <a:gd name="connsiteX1" fmla="*/ 616066 w 2834689"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 2007609"/>
-            <a:gd name="connsiteX2" fmla="*/ 2834688 w 2834689"/>
-            <a:gd name="connsiteY2" fmla="*/ 27338 h 2007609"/>
-            <a:gd name="connsiteX3" fmla="*/ 2304819 w 2834689"/>
-            <a:gd name="connsiteY3" fmla="*/ 1048741 h 2007609"/>
-            <a:gd name="connsiteX4" fmla="*/ 2834689 w 2834689"/>
-            <a:gd name="connsiteY4" fmla="*/ 2007609 h 2007609"/>
-            <a:gd name="connsiteX5" fmla="*/ 585453 w 2834689"/>
-            <a:gd name="connsiteY5" fmla="*/ 1986763 h 2007609"/>
-            <a:gd name="connsiteX6" fmla="*/ 0 w 2834689"/>
-            <a:gd name="connsiteY6" fmla="*/ 1002234 h 2007609"/>
+            <a:gd name="connsiteX2" fmla="*/ 0 w 2795008"/>
+            <a:gd name="connsiteY2" fmla="*/ 954977 h 3991089"/>
+            <a:gd name="connsiteX3" fmla="*/ 532520 w 2795008"/>
+            <a:gd name="connsiteY3" fmla="*/ 9091 h 3991089"/>
+            <a:gd name="connsiteX4" fmla="*/ 2788779 w 2795008"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 3991089"/>
+            <a:gd name="connsiteX5" fmla="*/ 2254325 w 2795008"/>
+            <a:gd name="connsiteY5" fmla="*/ 999838 h 3991089"/>
+            <a:gd name="connsiteX6" fmla="*/ 2795007 w 2795008"/>
+            <a:gd name="connsiteY6" fmla="*/ 2010818 h 3991089"/>
+            <a:gd name="connsiteX7" fmla="*/ 2265138 w 2795008"/>
+            <a:gd name="connsiteY7" fmla="*/ 3032221 h 3991089"/>
+            <a:gd name="connsiteX8" fmla="*/ 2795008 w 2795008"/>
+            <a:gd name="connsiteY8" fmla="*/ 3991089 h 3991089"/>
+            <a:gd name="connsiteX0" fmla="*/ 2265138 w 2795007"/>
+            <a:gd name="connsiteY0" fmla="*/ 3032221 h 3032221"/>
+            <a:gd name="connsiteX1" fmla="*/ 576385 w 2795007"/>
+            <a:gd name="connsiteY1" fmla="*/ 1983480 h 3032221"/>
+            <a:gd name="connsiteX2" fmla="*/ 0 w 2795007"/>
+            <a:gd name="connsiteY2" fmla="*/ 954977 h 3032221"/>
+            <a:gd name="connsiteX3" fmla="*/ 532520 w 2795007"/>
+            <a:gd name="connsiteY3" fmla="*/ 9091 h 3032221"/>
+            <a:gd name="connsiteX4" fmla="*/ 2788779 w 2795007"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 3032221"/>
+            <a:gd name="connsiteX5" fmla="*/ 2254325 w 2795007"/>
+            <a:gd name="connsiteY5" fmla="*/ 999838 h 3032221"/>
+            <a:gd name="connsiteX6" fmla="*/ 2795007 w 2795007"/>
+            <a:gd name="connsiteY6" fmla="*/ 2010818 h 3032221"/>
+            <a:gd name="connsiteX7" fmla="*/ 2265138 w 2795007"/>
+            <a:gd name="connsiteY7" fmla="*/ 3032221 h 3032221"/>
+            <a:gd name="connsiteX0" fmla="*/ 2795007 w 2795007"/>
+            <a:gd name="connsiteY0" fmla="*/ 2010818 h 2010818"/>
+            <a:gd name="connsiteX1" fmla="*/ 576385 w 2795007"/>
+            <a:gd name="connsiteY1" fmla="*/ 1983480 h 2010818"/>
+            <a:gd name="connsiteX2" fmla="*/ 0 w 2795007"/>
+            <a:gd name="connsiteY2" fmla="*/ 954977 h 2010818"/>
+            <a:gd name="connsiteX3" fmla="*/ 532520 w 2795007"/>
+            <a:gd name="connsiteY3" fmla="*/ 9091 h 2010818"/>
+            <a:gd name="connsiteX4" fmla="*/ 2788779 w 2795007"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 2010818"/>
+            <a:gd name="connsiteX5" fmla="*/ 2254325 w 2795007"/>
+            <a:gd name="connsiteY5" fmla="*/ 999838 h 2010818"/>
+            <a:gd name="connsiteX6" fmla="*/ 2795007 w 2795007"/>
+            <a:gd name="connsiteY6" fmla="*/ 2010818 h 2010818"/>
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst>
@@ -5514,27 +5514,27 @@
           </a:cxnLst>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
-            <a:path w="2834689" h="2007609">
+            <a:path w="2795007" h="2010818">
               <a:moveTo>
-                <a:pt x="0" y="1002234"/>
+                <a:pt x="2795007" y="2010818"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="616066" y="0"/>
+                <a:pt x="576385" y="1983480"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="2834688" y="27338"/>
+                <a:pt x="0" y="954977"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="2304819" y="1048741"/>
+                <a:pt x="532520" y="9091"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="2834689" y="2007609"/>
+                <a:pt x="2788779" y="0"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="585453" y="1986763"/>
+                <a:pt x="2254325" y="999838"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="1002234"/>
+                <a:pt x="2795007" y="2010818"/>
               </a:lnTo>
               <a:close/>
             </a:path>
@@ -5850,7 +5850,7 @@
   <dimension ref="A1:U55"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5951,7 +5951,7 @@
         <v>10</v>
       </c>
       <c r="M3" s="8">
-        <f>(ROUND((L3/10),0)-1)*4+(MOD(L3,10))</f>
+        <f t="shared" ref="M3:M25" si="0">(ROUND((L3/10),0)-1)*4+(MOD(L3,10))</f>
         <v>0</v>
       </c>
       <c r="N3" s="21">
@@ -5959,7 +5959,7 @@
       </c>
       <c r="O3" s="40">
         <f>+RADIANS(O5)</f>
-        <v>2.0943951023931953</v>
+        <v>0</v>
       </c>
       <c r="P3" s="39">
         <v>100</v>
@@ -5997,7 +5997,7 @@
         <v>11</v>
       </c>
       <c r="M4" s="8">
-        <f>(ROUND((L4/10),0)-1)*4+(MOD(L4,10))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N4" s="21">
@@ -6040,14 +6040,14 @@
         <v>12</v>
       </c>
       <c r="M5" s="8">
-        <f>(ROUND((L5/10),0)-1)*4+(MOD(L5,10))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="N5" s="21">
         <v>-2.0943951023932001</v>
       </c>
       <c r="O5" s="27">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="P5" s="19">
         <v>132</v>
@@ -6082,7 +6082,7 @@
         <v>13</v>
       </c>
       <c r="M6" s="24">
-        <f>(ROUND((L6/10),0)-1)*4+(MOD(L6,10))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="N6" s="21">
@@ -6122,14 +6122,14 @@
         <v>20</v>
       </c>
       <c r="M7" s="24">
-        <f>(ROUND((L7/10),0)-1)*4+(MOD(L7,10))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="N7" s="21">
         <v>0</v>
       </c>
       <c r="O7" s="27">
-        <v>200</v>
+        <v>-80</v>
       </c>
       <c r="P7" s="19">
         <v>148</v>
@@ -6161,7 +6161,7 @@
         <v>21</v>
       </c>
       <c r="M8" s="24">
-        <f>(ROUND((L8/10),0)-1)*4+(MOD(L8,10))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N8" s="21">
@@ -6199,14 +6199,14 @@
         <v>22</v>
       </c>
       <c r="M9" s="24">
-        <f>(ROUND((L9/10),0)-1)*4+(MOD(L9,10))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="N9" s="21">
         <v>0</v>
       </c>
       <c r="O9" s="27">
-        <v>-50</v>
+        <v>-160</v>
       </c>
       <c r="P9" s="19">
         <v>164</v>
@@ -6235,7 +6235,7 @@
         <v>23</v>
       </c>
       <c r="M10" s="24">
-        <f>(ROUND((L10/10),0)-1)*4+(MOD(L10,10))</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="N10" s="21">
@@ -6270,14 +6270,14 @@
         <v>40</v>
       </c>
       <c r="M11" s="8">
-        <f>(ROUND((L11/10),0)-1)*4+(MOD(L11,10))</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="N11" s="21">
         <v>0</v>
       </c>
       <c r="O11" s="26">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="P11" s="19">
         <v>116</v>
@@ -6305,7 +6305,7 @@
         <v>41</v>
       </c>
       <c r="M12" s="8">
-        <f>(ROUND((L12/10),0)-1)*4+(MOD(L12,10))</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="N12" s="21">
@@ -6324,26 +6324,26 @@
         <v>1</v>
       </c>
       <c r="B13" s="16">
-        <f>((ROUND($L13/10,0))-1)*4+MOD($L13,10)+((J13-1)*15)+O$11</f>
-        <v>40</v>
+        <f t="shared" ref="B13:B20" si="1">((ROUND($L13/10,0))-1)*4+MOD($L13,10)+((J13-1)*15)+O$11</f>
+        <v>8</v>
       </c>
       <c r="C13" s="15">
-        <f>((+P13*COS($O$3)-Q13*SIN($O$3))*$S$3)+$O$7</f>
-        <v>-0.60254037844379127</v>
+        <f t="shared" ref="C13:C20" si="2">((+P13*COS($O$3)-Q13*SIN($O$3))*$S$3)+$O$7</f>
+        <v>52</v>
       </c>
       <c r="D13" s="15">
-        <f>((P13*SIN($O$3)+Q13*COS($O$3))*$S$4)+$O$9</f>
-        <v>-13.397459621556067</v>
+        <f t="shared" ref="D13:D20" si="3">((P13*SIN($O$3)+Q13*COS($O$3))*$S$4)+$O$9</f>
+        <v>-4.5743741577960009</v>
       </c>
       <c r="E13" s="15">
-        <f>S$3*(($N13/3.1416*180)+$O$5)</f>
-        <v>120</v>
+        <f t="shared" ref="E13:E20" si="4">S$3*(($N13/3.1416*180)+$O$5)</f>
+        <v>0</v>
       </c>
       <c r="F13" s="14">
         <v>4</v>
       </c>
       <c r="G13" s="13">
-        <f>IF($S$3*$S$4=-1,1,0)</f>
+        <f t="shared" ref="G13:G20" si="5">IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I13" s="25"/>
@@ -6357,7 +6357,7 @@
         <v>30</v>
       </c>
       <c r="M13" s="8">
-        <f>(ROUND((L13/10),0)-1)*4+(MOD(L13,10))</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="N13" s="21">
@@ -6376,26 +6376,26 @@
         <v>1</v>
       </c>
       <c r="B14" s="16">
-        <f>((ROUND($L14/10,0))-1)*4+MOD($L14,10)+((J14-1)*15)+O$11</f>
-        <v>41</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="C14" s="15">
-        <f>((+P14*COS($O$3)-Q14*SIN($O$3))*$S$3)+$O$7</f>
-        <v>-0.60254037844376285</v>
+        <f t="shared" si="2"/>
+        <v>36</v>
       </c>
       <c r="D14" s="15">
-        <f>((P14*SIN($O$3)+Q14*COS($O$3))*$S$4)+$O$9</f>
-        <v>-31.872668235624062</v>
+        <f t="shared" si="3"/>
+        <v>4.6632301492379895</v>
       </c>
       <c r="E14" s="15">
-        <f>S$3*(($N14/3.1416*180)+$O$5)</f>
-        <v>179.99985969422843</v>
+        <f t="shared" si="4"/>
+        <v>59.999859694228427</v>
       </c>
       <c r="F14" s="14">
         <v>4</v>
       </c>
       <c r="G14" s="13">
-        <f>IF($S$3*$S$4=-1,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I14" s="25"/>
@@ -6409,7 +6409,7 @@
         <v>31</v>
       </c>
       <c r="M14" s="8">
-        <f>(ROUND((L14/10),0)-1)*4+(MOD(L14,10))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="N14" s="21">
@@ -6428,26 +6428,26 @@
         <v>1</v>
       </c>
       <c r="B15" s="16">
-        <f>((ROUND($L15/10,0))-1)*4+MOD($L15,10)+((J15-1)*15)+O$11</f>
-        <v>38</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="C15" s="15">
-        <f>((+P15*COS($O$3)-Q15*SIN($O$3))*$S$3)+$O$7</f>
-        <v>-16.602540378443763</v>
+        <f t="shared" si="2"/>
+        <v>36</v>
       </c>
       <c r="D15" s="15">
-        <f>((P15*SIN($O$3)+Q15*COS($O$3))*$S$4)+$O$9</f>
-        <v>-41.110272542658066</v>
+        <f t="shared" si="3"/>
+        <v>23.138438763305999</v>
       </c>
       <c r="E15" s="15">
-        <f>S$3*(($N15/3.1416*180)+$O$5)</f>
-        <v>120</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F15" s="14">
         <v>4</v>
       </c>
       <c r="G15" s="13">
-        <f>IF($S$3*$S$4=-1,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I15" s="25"/>
@@ -6461,7 +6461,7 @@
         <v>22</v>
       </c>
       <c r="M15" s="8">
-        <f>(ROUND((L15/10),0)-1)*4+(MOD(L15,10))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="N15" s="21">
@@ -6480,26 +6480,26 @@
         <v>1</v>
       </c>
       <c r="B16" s="16">
-        <f>((ROUND($L16/10,0))-1)*4+MOD($L16,10)+((J16-1)*15)+O$11</f>
-        <v>39</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="C16" s="15">
-        <f>((+P16*COS($O$3)-Q16*SIN($O$3))*$S$3)+$O$7</f>
-        <v>-32.602540378443734</v>
+        <f t="shared" si="2"/>
+        <v>52</v>
       </c>
       <c r="D16" s="15">
-        <f>((P16*SIN($O$3)+Q16*COS($O$3))*$S$4)+$O$9</f>
-        <v>-31.872668235624047</v>
+        <f t="shared" si="3"/>
+        <v>32.376043070339989</v>
       </c>
       <c r="E16" s="15">
-        <f>S$3*(($N16/3.1416*180)+$O$5)</f>
-        <v>60.000140305771573</v>
+        <f t="shared" si="4"/>
+        <v>-59.999859694228427</v>
       </c>
       <c r="F16" s="14">
         <v>4</v>
       </c>
       <c r="G16" s="13">
-        <f>IF($S$3*$S$4=-1,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I16" s="25"/>
@@ -6513,7 +6513,7 @@
         <v>23</v>
       </c>
       <c r="M16" s="8">
-        <f>(ROUND((L16/10),0)-1)*4+(MOD(L16,10))</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="N16" s="21">
@@ -6532,26 +6532,26 @@
         <v>1</v>
       </c>
       <c r="B17" s="16">
-        <f>((ROUND($L17/10,0))-1)*4+MOD($L17,10)+((J17-1)*15)+O$11</f>
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="C17" s="15">
-        <f>((+P17*COS($O$3)-Q17*SIN($O$3))*$S$3)+$O$7</f>
-        <v>-16.602540378443734</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="D17" s="15">
-        <f>((P17*SIN($O$3)+Q17*COS($O$3))*$S$4)+$O$9</f>
-        <v>-59.585481156726075</v>
+        <f t="shared" si="3"/>
+        <v>32.376043070339989</v>
       </c>
       <c r="E17" s="15">
-        <f>S$3*(($N17/3.1416*180)+$O$5)</f>
-        <v>179.99985969422843</v>
+        <f t="shared" si="4"/>
+        <v>59.999859694228427</v>
       </c>
       <c r="F17" s="14">
         <v>4</v>
       </c>
       <c r="G17" s="13">
-        <f>IF($S$3*$S$4=-1,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I17" s="25"/>
@@ -6565,7 +6565,7 @@
         <v>13</v>
       </c>
       <c r="M17" s="8">
-        <f>(ROUND((L17/10),0)-1)*4+(MOD(L17,10))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="N17" s="21">
@@ -6584,26 +6584,26 @@
         <v>1</v>
       </c>
       <c r="B18" s="16">
-        <f>((ROUND($L18/10,0))-1)*4+MOD($L18,10)+((J18-1)*15)+O$11</f>
-        <v>36</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="C18" s="15">
-        <f>((+P18*COS($O$3)-Q18*SIN($O$3))*$S$3)+$O$7</f>
-        <v>-0.60254037844376285</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="D18" s="15">
-        <f>((P18*SIN($O$3)+Q18*COS($O$3))*$S$4)+$O$9</f>
-        <v>-68.823085463760108</v>
+        <f t="shared" si="3"/>
+        <v>23.138438763305999</v>
       </c>
       <c r="E18" s="15">
-        <f>S$3*(($N18/3.1416*180)+$O$5)</f>
-        <v>239.99971938845687</v>
+        <f t="shared" si="4"/>
+        <v>119.99971938845685</v>
       </c>
       <c r="F18" s="14">
         <v>4</v>
       </c>
       <c r="G18" s="13">
-        <f>IF($S$3*$S$4=-1,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I18" s="25"/>
@@ -6617,7 +6617,7 @@
         <v>20</v>
       </c>
       <c r="M18" s="8">
-        <f>(ROUND((L18/10),0)-1)*4+(MOD(L18,10))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="N18" s="21">
@@ -6636,26 +6636,26 @@
         <v>1</v>
       </c>
       <c r="B19" s="16">
-        <f>((ROUND($L19/10,0))-1)*4+MOD($L19,10)+((J19-1)*15)+O$11</f>
-        <v>42</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="C19" s="15">
-        <f>((+P19*COS($O$3)-Q19*SIN($O$3))*$S$3)+$O$7</f>
-        <v>15.397459621556209</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="D19" s="15">
-        <f>((P19*SIN($O$3)+Q19*COS($O$3))*$S$4)+$O$9</f>
-        <v>-41.110272542658095</v>
+        <f t="shared" si="3"/>
+        <v>-4.5743741577960009</v>
       </c>
       <c r="E19" s="15">
-        <f>S$3*(($N19/3.1416*180)+$O$5)</f>
-        <v>239.99971938845687</v>
+        <f t="shared" si="4"/>
+        <v>119.99971938845685</v>
       </c>
       <c r="F19" s="14">
         <v>4</v>
       </c>
       <c r="G19" s="13">
-        <f>IF($S$3*$S$4=-1,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I19" s="25"/>
@@ -6669,7 +6669,7 @@
         <v>32</v>
       </c>
       <c r="M19" s="8">
-        <f>(ROUND((L19/10),0)-1)*4+(MOD(L19,10))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N19" s="21">
@@ -6688,26 +6688,26 @@
         <v>1</v>
       </c>
       <c r="B20" s="16">
-        <f>((ROUND($L20/10,0))-1)*4+MOD($L20,10)+((J20-1)*15)+O$11</f>
-        <v>37</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="C20" s="15">
-        <f>((+P20*COS($O$3)-Q20*SIN($O$3))*$S$3)+$O$7</f>
-        <v>15.397459621556237</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="D20" s="15">
-        <f>((P20*SIN($O$3)+Q20*COS($O$3))*$S$4)+$O$9</f>
-        <v>-59.585481156726104</v>
+        <f t="shared" si="3"/>
+        <v>4.6632301492379895</v>
       </c>
       <c r="E20" s="15">
-        <f>S$3*(($N20/3.1416*180)+$O$5)</f>
-        <v>179.99985969422843</v>
+        <f t="shared" si="4"/>
+        <v>59.999859694228427</v>
       </c>
       <c r="F20" s="14">
         <v>4</v>
       </c>
       <c r="G20" s="13">
-        <f>IF($S$3*$S$4=-1,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I20" s="12"/>
@@ -6721,7 +6721,7 @@
         <v>21</v>
       </c>
       <c r="M20" s="24">
-        <f>(ROUND((L20/10),0)-1)*4+(MOD(L20,10))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N20" s="21">
@@ -6754,7 +6754,7 @@
         <v>43</v>
       </c>
       <c r="M21" s="24">
-        <f>(ROUND((L21/10),0)-1)*4+(MOD(L21,10))</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N21" s="21">
@@ -6787,7 +6787,7 @@
         <v>10</v>
       </c>
       <c r="M22" s="24">
-        <f>(ROUND((L22/10),0)-1)*4+(MOD(L22,10))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N22" s="21">
@@ -6820,7 +6820,7 @@
         <v>33</v>
       </c>
       <c r="M23" s="8">
-        <f>(ROUND((L23/10),0)-1)*4+(MOD(L23,10))</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="N23" s="21">
@@ -6853,7 +6853,7 @@
         <v>42</v>
       </c>
       <c r="M24" s="8">
-        <f>(ROUND((L24/10),0)-1)*4+(MOD(L24,10))</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="N24" s="21">
@@ -6886,7 +6886,7 @@
         <v>43</v>
       </c>
       <c r="M25" s="8">
-        <f>(ROUND((L25/10),0)-1)*4+(MOD(L25,10))</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N25" s="7">
@@ -7188,8 +7188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T34" sqref="T34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7276,19 +7276,19 @@
       </c>
       <c r="B3" s="16">
         <f>((ROUND($L3/10,0))-1)*4+MOD($L3,10)+((J3-1)*15)+O$11</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C3" s="15">
         <f>((+P3*COS($O$3)-Q3*SIN($O$3))*$S$3)+$O$7</f>
-        <v>63.397459621556152</v>
+        <v>100</v>
       </c>
       <c r="D3" s="15">
         <f>((P3*SIN($O$3)+Q3*COS($O$3))*$S$4)+$O$9</f>
-        <v>-13.397459621556102</v>
+        <v>100</v>
       </c>
       <c r="E3" s="15">
         <f>S$3*(($N3/3.1416*180)+$O$5)</f>
-        <v>2.80611543146847E-4</v>
+        <v>-119.99971938845685</v>
       </c>
       <c r="F3" s="14">
         <v>4</v>
@@ -7309,7 +7309,7 @@
         <v>10</v>
       </c>
       <c r="M3" s="8">
-        <f>(ROUND((L3/10),0)-1)*4+(MOD(L3,10))</f>
+        <f t="shared" ref="M3:M25" si="0">(ROUND((L3/10),0)-1)*4+(MOD(L3,10))</f>
         <v>0</v>
       </c>
       <c r="N3" s="21">
@@ -7317,7 +7317,7 @@
       </c>
       <c r="O3" s="40">
         <f>+RADIANS(O5)</f>
-        <v>2.0943951023931953</v>
+        <v>0</v>
       </c>
       <c r="P3" s="39">
         <v>100</v>
@@ -7341,19 +7341,19 @@
       </c>
       <c r="B4" s="16">
         <f>((ROUND($L4/10,0))-1)*4+MOD($L4,10)+((J4-1)*15)+O$11</f>
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C4" s="15">
         <f>((+P4*COS($O$3)-Q4*SIN($O$3))*$S$3)+$O$7</f>
-        <v>47.397459621556152</v>
+        <v>116</v>
       </c>
       <c r="D4" s="15">
         <f>((P4*SIN($O$3)+Q4*COS($O$3))*$S$4)+$O$9</f>
-        <v>-4.1598553145220905</v>
+        <v>109.237604307034</v>
       </c>
       <c r="E4" s="15">
         <f>S$3*(($N4/3.1416*180)+$O$5)</f>
-        <v>60.000140305771573</v>
+        <v>-59.999859694228427</v>
       </c>
       <c r="F4" s="14">
         <v>4</v>
@@ -7374,7 +7374,7 @@
         <v>11</v>
       </c>
       <c r="M4" s="8">
-        <f>(ROUND((L4/10),0)-1)*4+(MOD(L4,10))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N4" s="21">
@@ -7403,19 +7403,19 @@
       </c>
       <c r="B5" s="16">
         <f>((ROUND($L5/10,0))-1)*4+MOD($L5,10)+((J5-1)*15)+O$11</f>
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="C5" s="15">
         <f>((+P5*COS($O$3)-Q5*SIN($O$3))*$S$3)+$O$7</f>
-        <v>47.397459621556152</v>
+        <v>132</v>
       </c>
       <c r="D5" s="15">
         <f>((P5*SIN($O$3)+Q5*COS($O$3))*$S$4)+$O$9</f>
-        <v>14.315353299545933</v>
+        <v>100</v>
       </c>
       <c r="E5" s="15">
         <f>S$3*(($N5/3.1416*180)+$O$5)</f>
-        <v>2.80611543146847E-4</v>
+        <v>-119.99971938845685</v>
       </c>
       <c r="F5" s="14">
         <v>4</v>
@@ -7436,14 +7436,14 @@
         <v>12</v>
       </c>
       <c r="M5" s="8">
-        <f>(ROUND((L5/10),0)-1)*4+(MOD(L5,10))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="N5" s="21">
         <v>-2.0943951023932001</v>
       </c>
       <c r="O5" s="27">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="P5" s="19">
         <v>132</v>
@@ -7478,7 +7478,7 @@
         <v>13</v>
       </c>
       <c r="M6" s="24">
-        <f>(ROUND((L6/10),0)-1)*4+(MOD(L6,10))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="N6" s="21">
@@ -7518,14 +7518,14 @@
         <v>20</v>
       </c>
       <c r="M7" s="24">
-        <f>(ROUND((L7/10),0)-1)*4+(MOD(L7,10))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="N7" s="21">
         <v>0</v>
       </c>
       <c r="O7" s="27">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P7" s="19">
         <v>148</v>
@@ -7557,7 +7557,7 @@
         <v>21</v>
       </c>
       <c r="M8" s="24">
-        <f>(ROUND((L8/10),0)-1)*4+(MOD(L8,10))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N8" s="21">
@@ -7595,14 +7595,14 @@
         <v>22</v>
       </c>
       <c r="M9" s="24">
-        <f>(ROUND((L9/10),0)-1)*4+(MOD(L9,10))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="N9" s="21">
         <v>0</v>
       </c>
       <c r="O9" s="27">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="P9" s="19">
         <v>164</v>
@@ -7631,7 +7631,7 @@
         <v>23</v>
       </c>
       <c r="M10" s="24">
-        <f>(ROUND((L10/10),0)-1)*4+(MOD(L10,10))</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="N10" s="21">
@@ -7653,19 +7653,19 @@
       </c>
       <c r="B11" s="16">
         <f>((ROUND($L11/10,0))-1)*4+MOD($L11,10)+((J11-1)*15)+O$11</f>
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C11" s="15">
         <f>((+P11*COS($O$3)-Q11*SIN($O$3))*$S$3)+$O$7</f>
-        <v>31.397459621556209</v>
+        <v>116</v>
       </c>
       <c r="D11" s="15">
         <f>((P11*SIN($O$3)+Q11*COS($O$3))*$S$4)+$O$9</f>
-        <v>-13.397459621556081</v>
+        <v>127.712812921102</v>
       </c>
       <c r="E11" s="15">
         <f>S$3*(($N11/3.1416*180)+$O$5)</f>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F11" s="14">
         <v>4</v>
@@ -7685,14 +7685,14 @@
         <v>40</v>
       </c>
       <c r="M11" s="8">
-        <f>(ROUND((L11/10),0)-1)*4+(MOD(L11,10))</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="N11" s="21">
         <v>0</v>
       </c>
       <c r="O11" s="26">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="P11" s="19">
         <v>116</v>
@@ -7707,19 +7707,19 @@
       </c>
       <c r="B12" s="16">
         <f>((ROUND($L12/10,0))-1)*4+MOD($L12,10)+((J12-1)*15)+O$11</f>
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C12" s="15">
         <f>((+P12*COS($O$3)-Q12*SIN($O$3))*$S$3)+$O$7</f>
-        <v>15.397459621556209</v>
+        <v>132</v>
       </c>
       <c r="D12" s="15">
         <f>((P12*SIN($O$3)+Q12*COS($O$3))*$S$4)+$O$9</f>
-        <v>-4.159855314522062</v>
+        <v>136.95041722813599</v>
       </c>
       <c r="E12" s="15">
         <f>S$3*(($N12/3.1416*180)+$O$5)</f>
-        <v>60.000140305771573</v>
+        <v>-59.999859694228427</v>
       </c>
       <c r="F12" s="14">
         <v>4</v>
@@ -7739,7 +7739,7 @@
         <v>41</v>
       </c>
       <c r="M12" s="8">
-        <f>(ROUND((L12/10),0)-1)*4+(MOD(L12,10))</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="N12" s="21">
@@ -7772,7 +7772,7 @@
         <v>30</v>
       </c>
       <c r="M13" s="8">
-        <f>(ROUND((L13/10),0)-1)*4+(MOD(L13,10))</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="N13" s="21">
@@ -7805,7 +7805,7 @@
         <v>31</v>
       </c>
       <c r="M14" s="8">
-        <f>(ROUND((L14/10),0)-1)*4+(MOD(L14,10))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="N14" s="21">
@@ -7838,7 +7838,7 @@
         <v>22</v>
       </c>
       <c r="M15" s="8">
-        <f>(ROUND((L15/10),0)-1)*4+(MOD(L15,10))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="N15" s="21">
@@ -7871,7 +7871,7 @@
         <v>23</v>
       </c>
       <c r="M16" s="8">
-        <f>(ROUND((L16/10),0)-1)*4+(MOD(L16,10))</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="N16" s="21">
@@ -7904,7 +7904,7 @@
         <v>13</v>
       </c>
       <c r="M17" s="8">
-        <f>(ROUND((L17/10),0)-1)*4+(MOD(L17,10))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="N17" s="21">
@@ -7937,7 +7937,7 @@
         <v>20</v>
       </c>
       <c r="M18" s="8">
-        <f>(ROUND((L18/10),0)-1)*4+(MOD(L18,10))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="N18" s="21">
@@ -7970,7 +7970,7 @@
         <v>32</v>
       </c>
       <c r="M19" s="8">
-        <f>(ROUND((L19/10),0)-1)*4+(MOD(L19,10))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N19" s="21">
@@ -8003,7 +8003,7 @@
         <v>21</v>
       </c>
       <c r="M20" s="24">
-        <f>(ROUND((L20/10),0)-1)*4+(MOD(L20,10))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N20" s="21">
@@ -8036,7 +8036,7 @@
         <v>43</v>
       </c>
       <c r="M21" s="24">
-        <f>(ROUND((L21/10),0)-1)*4+(MOD(L21,10))</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N21" s="21">
@@ -8069,7 +8069,7 @@
         <v>10</v>
       </c>
       <c r="M22" s="24">
-        <f>(ROUND((L22/10),0)-1)*4+(MOD(L22,10))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N22" s="21">
@@ -8089,19 +8089,19 @@
       </c>
       <c r="B23" s="16">
         <f>((ROUND($L23/10,0))-1)*4+MOD($L23,10)+((J23-1)*15)+O$11</f>
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C23" s="15">
         <f>((+P23*COS($O$3)-Q23*SIN($O$3))*$S$3)+$O$7</f>
-        <v>31.397459621556209</v>
+        <v>100</v>
       </c>
       <c r="D23" s="15">
         <f>((P23*SIN($O$3)+Q23*COS($O$3))*$S$4)+$O$9</f>
-        <v>-31.87266823562409</v>
+        <v>136.95041722813599</v>
       </c>
       <c r="E23" s="15">
         <f>S$3*(($N23/3.1416*180)+$O$5)</f>
-        <v>299.9995790826847</v>
+        <v>179.99957908268468</v>
       </c>
       <c r="F23" s="14">
         <v>4</v>
@@ -8121,7 +8121,7 @@
         <v>33</v>
       </c>
       <c r="M23" s="8">
-        <f>(ROUND((L23/10),0)-1)*4+(MOD(L23,10))</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="N23" s="21">
@@ -8141,19 +8141,19 @@
       </c>
       <c r="B24" s="16">
         <f>((ROUND($L24/10,0))-1)*4+MOD($L24,10)+((J24-1)*15)+O$11</f>
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C24" s="15">
         <f>((+P24*COS($O$3)-Q24*SIN($O$3))*$S$3)+$O$7</f>
-        <v>47.39745962155618</v>
+        <v>84</v>
       </c>
       <c r="D24" s="15">
         <f>((P24*SIN($O$3)+Q24*COS($O$3))*$S$4)+$O$9</f>
-        <v>-41.110272542658123</v>
+        <v>127.712812921102</v>
       </c>
       <c r="E24" s="15">
         <f>S$3*(($N24/3.1416*180)+$O$5)</f>
-        <v>239.99971938845687</v>
+        <v>119.99971938845685</v>
       </c>
       <c r="F24" s="14">
         <v>4</v>
@@ -8173,7 +8173,7 @@
         <v>42</v>
       </c>
       <c r="M24" s="8">
-        <f>(ROUND((L24/10),0)-1)*4+(MOD(L24,10))</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="N24" s="21">
@@ -8193,19 +8193,19 @@
       </c>
       <c r="B25" s="16">
         <f>((ROUND($L25/10,0))-1)*4+MOD($L25,10)+((J25-1)*15)+O$11</f>
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C25" s="15">
         <f>((+P25*COS($O$3)-Q25*SIN($O$3))*$S$3)+$O$7</f>
-        <v>63.397459621556152</v>
+        <v>84</v>
       </c>
       <c r="D25" s="15">
         <f>((P25*SIN($O$3)+Q25*COS($O$3))*$S$4)+$O$9</f>
-        <v>-31.872668235624133</v>
+        <v>109.237604307034</v>
       </c>
       <c r="E25" s="15">
         <f>S$3*(($N25/3.1416*180)+$O$5)</f>
-        <v>299.9995790826847</v>
+        <v>179.99957908268468</v>
       </c>
       <c r="F25" s="14">
         <v>4</v>
@@ -8225,7 +8225,7 @@
         <v>43</v>
       </c>
       <c r="M25" s="8">
-        <f>(ROUND((L25/10),0)-1)*4+(MOD(L25,10))</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N25" s="7">
@@ -8864,19 +8864,19 @@
       </c>
       <c r="B13" s="56">
         <f>IF('right upperarm front'!B13=0, "", 'right upperarm front'!B13)</f>
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C13" s="56">
         <f>IF('right upperarm front'!C13=0, "", 'right upperarm front'!C13)</f>
-        <v>-0.60254037844379127</v>
+        <v>52</v>
       </c>
       <c r="D13" s="56">
         <f>IF('right upperarm front'!D13=0, "", 'right upperarm front'!D13)</f>
-        <v>-13.397459621556067</v>
-      </c>
-      <c r="E13" s="56">
+        <v>-4.5743741577960009</v>
+      </c>
+      <c r="E13" s="56" t="str">
         <f>IF('right upperarm front'!E13=0, "", 'right upperarm front'!E13)</f>
-        <v>120</v>
+        <v/>
       </c>
       <c r="F13" s="56">
         <f>IF('right upperarm front'!F13=0, "", 'right upperarm front'!F13)</f>
@@ -8894,19 +8894,19 @@
       </c>
       <c r="B14" s="56">
         <f>IF('right upperarm front'!B14=0, "", 'right upperarm front'!B14)</f>
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C14" s="56">
         <f>IF('right upperarm front'!C14=0, "", 'right upperarm front'!C14)</f>
-        <v>-0.60254037844376285</v>
+        <v>36</v>
       </c>
       <c r="D14" s="56">
         <f>IF('right upperarm front'!D14=0, "", 'right upperarm front'!D14)</f>
-        <v>-31.872668235624062</v>
+        <v>4.6632301492379895</v>
       </c>
       <c r="E14" s="56">
         <f>IF('right upperarm front'!E14=0, "", 'right upperarm front'!E14)</f>
-        <v>179.99985969422843</v>
+        <v>59.999859694228427</v>
       </c>
       <c r="F14" s="56">
         <f>IF('right upperarm front'!F14=0, "", 'right upperarm front'!F14)</f>
@@ -8924,19 +8924,19 @@
       </c>
       <c r="B15" s="56">
         <f>IF('right upperarm front'!B15=0, "", 'right upperarm front'!B15)</f>
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C15" s="56">
         <f>IF('right upperarm front'!C15=0, "", 'right upperarm front'!C15)</f>
-        <v>-16.602540378443763</v>
+        <v>36</v>
       </c>
       <c r="D15" s="56">
         <f>IF('right upperarm front'!D15=0, "", 'right upperarm front'!D15)</f>
-        <v>-41.110272542658066</v>
-      </c>
-      <c r="E15" s="56">
+        <v>23.138438763305999</v>
+      </c>
+      <c r="E15" s="56" t="str">
         <f>IF('right upperarm front'!E15=0, "", 'right upperarm front'!E15)</f>
-        <v>120</v>
+        <v/>
       </c>
       <c r="F15" s="56">
         <f>IF('right upperarm front'!F15=0, "", 'right upperarm front'!F15)</f>
@@ -8954,19 +8954,19 @@
       </c>
       <c r="B16" s="56">
         <f>IF('right upperarm front'!B16=0, "", 'right upperarm front'!B16)</f>
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C16" s="56">
         <f>IF('right upperarm front'!C16=0, "", 'right upperarm front'!C16)</f>
-        <v>-32.602540378443734</v>
+        <v>52</v>
       </c>
       <c r="D16" s="56">
         <f>IF('right upperarm front'!D16=0, "", 'right upperarm front'!D16)</f>
-        <v>-31.872668235624047</v>
+        <v>32.376043070339989</v>
       </c>
       <c r="E16" s="56">
         <f>IF('right upperarm front'!E16=0, "", 'right upperarm front'!E16)</f>
-        <v>60.000140305771573</v>
+        <v>-59.999859694228427</v>
       </c>
       <c r="F16" s="56">
         <f>IF('right upperarm front'!F16=0, "", 'right upperarm front'!F16)</f>
@@ -8984,19 +8984,19 @@
       </c>
       <c r="B17" s="56">
         <f>IF('right upperarm front'!B17=0, "", 'right upperarm front'!B17)</f>
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C17" s="56">
         <f>IF('right upperarm front'!C17=0, "", 'right upperarm front'!C17)</f>
-        <v>-16.602540378443734</v>
+        <v>20</v>
       </c>
       <c r="D17" s="56">
         <f>IF('right upperarm front'!D17=0, "", 'right upperarm front'!D17)</f>
-        <v>-59.585481156726075</v>
+        <v>32.376043070339989</v>
       </c>
       <c r="E17" s="56">
         <f>IF('right upperarm front'!E17=0, "", 'right upperarm front'!E17)</f>
-        <v>179.99985969422843</v>
+        <v>59.999859694228427</v>
       </c>
       <c r="F17" s="56">
         <f>IF('right upperarm front'!F17=0, "", 'right upperarm front'!F17)</f>
@@ -9014,19 +9014,19 @@
       </c>
       <c r="B18" s="56">
         <f>IF('right upperarm front'!B18=0, "", 'right upperarm front'!B18)</f>
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C18" s="56">
         <f>IF('right upperarm front'!C18=0, "", 'right upperarm front'!C18)</f>
-        <v>-0.60254037844376285</v>
+        <v>4</v>
       </c>
       <c r="D18" s="56">
         <f>IF('right upperarm front'!D18=0, "", 'right upperarm front'!D18)</f>
-        <v>-68.823085463760108</v>
+        <v>23.138438763305999</v>
       </c>
       <c r="E18" s="56">
         <f>IF('right upperarm front'!E18=0, "", 'right upperarm front'!E18)</f>
-        <v>239.99971938845687</v>
+        <v>119.99971938845685</v>
       </c>
       <c r="F18" s="56">
         <f>IF('right upperarm front'!F18=0, "", 'right upperarm front'!F18)</f>
@@ -9044,19 +9044,19 @@
       </c>
       <c r="B19" s="56">
         <f>IF('right upperarm front'!B19=0, "", 'right upperarm front'!B19)</f>
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C19" s="56">
         <f>IF('right upperarm front'!C19=0, "", 'right upperarm front'!C19)</f>
-        <v>15.397459621556209</v>
+        <v>20</v>
       </c>
       <c r="D19" s="56">
         <f>IF('right upperarm front'!D19=0, "", 'right upperarm front'!D19)</f>
-        <v>-41.110272542658095</v>
+        <v>-4.5743741577960009</v>
       </c>
       <c r="E19" s="56">
         <f>IF('right upperarm front'!E19=0, "", 'right upperarm front'!E19)</f>
-        <v>239.99971938845687</v>
+        <v>119.99971938845685</v>
       </c>
       <c r="F19" s="56">
         <f>IF('right upperarm front'!F19=0, "", 'right upperarm front'!F19)</f>
@@ -9074,19 +9074,19 @@
       </c>
       <c r="B20" s="56">
         <f>IF('right upperarm front'!B20=0, "", 'right upperarm front'!B20)</f>
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C20" s="56">
         <f>IF('right upperarm front'!C20=0, "", 'right upperarm front'!C20)</f>
-        <v>15.397459621556237</v>
+        <v>4</v>
       </c>
       <c r="D20" s="56">
         <f>IF('right upperarm front'!D20=0, "", 'right upperarm front'!D20)</f>
-        <v>-59.585481156726104</v>
+        <v>4.6632301492379895</v>
       </c>
       <c r="E20" s="56">
         <f>IF('right upperarm front'!E20=0, "", 'right upperarm front'!E20)</f>
-        <v>179.99985969422843</v>
+        <v>59.999859694228427</v>
       </c>
       <c r="F20" s="56">
         <f>IF('right upperarm front'!F20=0, "", 'right upperarm front'!F20)</f>
@@ -9312,21 +9312,21 @@
         <f>IF('right upperarm back'!A3=0, "", 'right upperarm back'!A3)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B28" s="56">
+      <c r="B28" s="56" t="str">
         <f>IF('right upperarm back'!B3=0, "", 'right upperarm back'!B3)</f>
-        <v>32</v>
+        <v/>
       </c>
       <c r="C28" s="56">
         <f>IF('right upperarm back'!C3=0, "", 'right upperarm back'!C3)</f>
-        <v>63.397459621556152</v>
+        <v>100</v>
       </c>
       <c r="D28" s="56">
         <f>IF('right upperarm back'!D3=0, "", 'right upperarm back'!D3)</f>
-        <v>-13.397459621556102</v>
+        <v>100</v>
       </c>
       <c r="E28" s="56">
         <f>IF('right upperarm back'!E3=0, "", 'right upperarm back'!E3)</f>
-        <v>2.80611543146847E-4</v>
+        <v>-119.99971938845685</v>
       </c>
       <c r="F28" s="56">
         <f>IF('right upperarm back'!F3=0, "", 'right upperarm back'!F3)</f>
@@ -9344,19 +9344,19 @@
       </c>
       <c r="B29" s="56">
         <f>IF('right upperarm back'!B4=0, "", 'right upperarm back'!B4)</f>
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C29" s="56">
         <f>IF('right upperarm back'!C4=0, "", 'right upperarm back'!C4)</f>
-        <v>47.397459621556152</v>
+        <v>116</v>
       </c>
       <c r="D29" s="56">
         <f>IF('right upperarm back'!D4=0, "", 'right upperarm back'!D4)</f>
-        <v>-4.1598553145220905</v>
+        <v>109.237604307034</v>
       </c>
       <c r="E29" s="56">
         <f>IF('right upperarm back'!E4=0, "", 'right upperarm back'!E4)</f>
-        <v>60.000140305771573</v>
+        <v>-59.999859694228427</v>
       </c>
       <c r="F29" s="56">
         <f>IF('right upperarm back'!F4=0, "", 'right upperarm back'!F4)</f>
@@ -9374,19 +9374,19 @@
       </c>
       <c r="B30" s="56">
         <f>IF('right upperarm back'!B5=0, "", 'right upperarm back'!B5)</f>
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="C30" s="56">
         <f>IF('right upperarm back'!C5=0, "", 'right upperarm back'!C5)</f>
-        <v>47.397459621556152</v>
+        <v>132</v>
       </c>
       <c r="D30" s="56">
         <f>IF('right upperarm back'!D5=0, "", 'right upperarm back'!D5)</f>
-        <v>14.315353299545933</v>
+        <v>100</v>
       </c>
       <c r="E30" s="56">
         <f>IF('right upperarm back'!E5=0, "", 'right upperarm back'!E5)</f>
-        <v>2.80611543146847E-4</v>
+        <v>-119.99971938845685</v>
       </c>
       <c r="F30" s="56">
         <f>IF('right upperarm back'!F5=0, "", 'right upperarm back'!F5)</f>
@@ -9554,19 +9554,19 @@
       </c>
       <c r="B36" s="56">
         <f>IF('right upperarm back'!B11=0, "", 'right upperarm back'!B11)</f>
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C36" s="56">
         <f>IF('right upperarm back'!C11=0, "", 'right upperarm back'!C11)</f>
-        <v>31.397459621556209</v>
+        <v>116</v>
       </c>
       <c r="D36" s="56">
         <f>IF('right upperarm back'!D11=0, "", 'right upperarm back'!D11)</f>
-        <v>-13.397459621556081</v>
-      </c>
-      <c r="E36" s="56">
+        <v>127.712812921102</v>
+      </c>
+      <c r="E36" s="56" t="str">
         <f>IF('right upperarm back'!E11=0, "", 'right upperarm back'!E11)</f>
-        <v>120</v>
+        <v/>
       </c>
       <c r="F36" s="56">
         <f>IF('right upperarm back'!F11=0, "", 'right upperarm back'!F11)</f>
@@ -9584,19 +9584,19 @@
       </c>
       <c r="B37" s="56">
         <f>IF('right upperarm back'!B12=0, "", 'right upperarm back'!B12)</f>
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C37" s="56">
         <f>IF('right upperarm back'!C12=0, "", 'right upperarm back'!C12)</f>
-        <v>15.397459621556209</v>
+        <v>132</v>
       </c>
       <c r="D37" s="56">
         <f>IF('right upperarm back'!D12=0, "", 'right upperarm back'!D12)</f>
-        <v>-4.159855314522062</v>
+        <v>136.95041722813599</v>
       </c>
       <c r="E37" s="56">
         <f>IF('right upperarm back'!E12=0, "", 'right upperarm back'!E12)</f>
-        <v>60.000140305771573</v>
+        <v>-59.999859694228427</v>
       </c>
       <c r="F37" s="56">
         <f>IF('right upperarm back'!F12=0, "", 'right upperarm back'!F12)</f>
@@ -9914,19 +9914,19 @@
       </c>
       <c r="B48" s="56">
         <f>IF('right upperarm back'!B23=0, "", 'right upperarm back'!B23)</f>
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C48" s="56">
         <f>IF('right upperarm back'!C23=0, "", 'right upperarm back'!C23)</f>
-        <v>31.397459621556209</v>
+        <v>100</v>
       </c>
       <c r="D48" s="56">
         <f>IF('right upperarm back'!D23=0, "", 'right upperarm back'!D23)</f>
-        <v>-31.87266823562409</v>
+        <v>136.95041722813599</v>
       </c>
       <c r="E48" s="56">
         <f>IF('right upperarm back'!E23=0, "", 'right upperarm back'!E23)</f>
-        <v>299.9995790826847</v>
+        <v>179.99957908268468</v>
       </c>
       <c r="F48" s="56">
         <f>IF('right upperarm back'!F23=0, "", 'right upperarm back'!F23)</f>
@@ -9944,19 +9944,19 @@
       </c>
       <c r="B49" s="56">
         <f>IF('right upperarm back'!B24=0, "", 'right upperarm back'!B24)</f>
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C49" s="56">
         <f>IF('right upperarm back'!C24=0, "", 'right upperarm back'!C24)</f>
-        <v>47.39745962155618</v>
+        <v>84</v>
       </c>
       <c r="D49" s="56">
         <f>IF('right upperarm back'!D24=0, "", 'right upperarm back'!D24)</f>
-        <v>-41.110272542658123</v>
+        <v>127.712812921102</v>
       </c>
       <c r="E49" s="56">
         <f>IF('right upperarm back'!E24=0, "", 'right upperarm back'!E24)</f>
-        <v>239.99971938845687</v>
+        <v>119.99971938845685</v>
       </c>
       <c r="F49" s="56">
         <f>IF('right upperarm back'!F24=0, "", 'right upperarm back'!F24)</f>
@@ -9974,19 +9974,19 @@
       </c>
       <c r="B50" s="56">
         <f>IF('right upperarm back'!B25=0, "", 'right upperarm back'!B25)</f>
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C50" s="56">
         <f>IF('right upperarm back'!C25=0, "", 'right upperarm back'!C25)</f>
-        <v>63.397459621556152</v>
+        <v>84</v>
       </c>
       <c r="D50" s="56">
         <f>IF('right upperarm back'!D25=0, "", 'right upperarm back'!D25)</f>
-        <v>-31.872668235624133</v>
+        <v>109.237604307034</v>
       </c>
       <c r="E50" s="56">
         <f>IF('right upperarm back'!E25=0, "", 'right upperarm back'!E25)</f>
-        <v>299.9995790826847</v>
+        <v>179.99957908268468</v>
       </c>
       <c r="F50" s="56">
         <f>IF('right upperarm back'!F25=0, "", 'right upperarm back'!F25)</f>
